--- a/_Lab3_Skeleton/MinuteHand_HourHand_Sin_Cos_Values.xlsx
+++ b/_Lab3_Skeleton/MinuteHand_HourHand_Sin_Cos_Values.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B61" si="0">INT(45*COS(A4*PI()/180))</f>
+        <f t="shared" ref="B4:B62" si="0">INT(45*COS(A4*PI()/180))</f>
         <v>44</v>
       </c>
       <c r="C4" s="1">
@@ -1814,6 +1814,19 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>360</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62" si="6">INT(45*SIN(A62*PI()/180))</f>
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
